--- a/OpenCart-BugReport/OpneCart-BugReport.xlsx
+++ b/OpenCart-BugReport/OpneCart-BugReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="139">
   <si>
     <t>Bug ID</t>
   </si>
@@ -193,12 +193,379 @@
     <t xml:space="preserve">Doesn't not getting hide and visible option 
 on the 'Password' fields in the 'Register Account' page </t>
   </si>
+  <si>
+    <t>OPENCART-BUG-7</t>
+  </si>
+  <si>
+    <t>The number of  unsuccessful loggin attempt
+but not shown warning message you exceeded number of loggin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the application URL with any Browser
+2.Click on 'My Account' Drop-down menu
+3. Click on 'Login' option
+4. Enter invalid email address into the 'E-mail address' field &lt;Refer Test data&gt;
+5. Enter invalid password  into the 'Password' field &lt; Refer Test data&gt;
+5. Click on 'Login' Button 
+6. Repeat step 5 for 4 more times </t>
+  </si>
+  <si>
+    <t>Must show Warning message with the text :
+'Warning : Your account  has exceeded allowed numbers of loggin
+attempts . Please try again in 1 hour
+should be displayed for the 5th time of clicking the 'login' button with the same invalid credentials</t>
+  </si>
+  <si>
+    <t>Doesn't not getting Warning message with
+the text:
+our account has exceeded allowed number of login attempts. Please try again in 1 hour.' is not displayed for the 5th time of clicking the 'Login' button with the same invalid credentials</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-8</t>
+  </si>
+  <si>
+    <t>Loggin Password field no have toggled
+button. User is not toggled hide or visible 
+in her password field label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the application URL with any Browser
+2. Click on 'My Account' Drop-down menu
+3. click on 'Login' option
+4. Enter the password into the 'Password' field and check the toggled button
+</t>
+  </si>
+  <si>
+    <t>Must have hide and visible option on
+ the 'Password' level in the 'Login' page</t>
+  </si>
+  <si>
+    <t>User getting only hide password into the 'Password' level in the 'Login' page</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-9</t>
+  </si>
+  <si>
+    <t>User is not automatically getting logged out
+of the  application after 30 minutes of activity</t>
+  </si>
+  <si>
+    <t>1. Login to the application with  valid  credentials
+2. Don't perform any action for next 30 minutes
+3. Try to perform any action after the above 30 minutes like search product etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should get automatically logged out </t>
+  </si>
+  <si>
+    <t>User is not getting logged out</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-10</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-11</t>
+  </si>
+  <si>
+    <t>User is not getting logged out in one browser, when logged out in another browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login to the Application with same credentials in Chrome and Firefox Browser
+2. Logout in Chrome browser
+3. Check performing any action in Firefox browser
+</t>
+  </si>
+  <si>
+    <t>User should also get logged out in Firefox browser</t>
+  </si>
+  <si>
+    <t>User is not getting logged out automatically in Firefox browser</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-12</t>
+  </si>
+  <si>
+    <t>Email address is not getting carry forwarded from the 'Login' page to 'Forgot Your Password' page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Application URL
+2. Click on 'My Account' dropmenu
+3. Select 'Login' option
+4. Enter email address into the 'E-Mail Address' text field 
+5. Click on 'Forgotten Password' link
+</t>
+  </si>
+  <si>
+    <t>Email address given in Login page should get carry forwarded to 'Forgot Your Password' page</t>
+  </si>
+  <si>
+    <t>Email address given in Login page is not getting carry forwarded to 'Forgot Your Password' page</t>
+  </si>
+  <si>
+    <t>P1(Medium)</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-13</t>
+  </si>
+  <si>
+    <t>Using tab keyboard key is not highlighting the 'Search in subcategories' checkbox field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Application URL
+2. Click on 'Search' icon without entering any product name
+3. In the displayed 'Search' page, continuously press 'Tab' keyboard key
+</t>
+  </si>
+  <si>
+    <t>All the options on the 'Search' page should get highlighted/focused.</t>
+  </si>
+  <si>
+    <t>Search in subcategories' checkbox field is not highlighted or focused.</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-14</t>
+  </si>
+  <si>
+    <t>Negative, Null and Zero values are accepted by the Qty field in Product Display Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Application URL
+2. Enter any Product Name say 'iMac' into the Search box field 
+3. Click on the button having Search icon
+4. Click the Product displayed in the Search results 
+5. Change the quantity to Negative or Blank or Zero in the Qty field of Product Display Page
+6. Click on 'Add to Cart' button
+</t>
+  </si>
+  <si>
+    <t>Warning message informing the User to enter a positive quantity into the Qty field should be displayed</t>
+  </si>
+  <si>
+    <t>Success message with text - Success: You have added Product to your shopping cart! is getting displayed</t>
+  </si>
+  <si>
+    <t>P0(High)</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-15</t>
+  </si>
+  <si>
+    <t>Warning message informing the User to provide positive quantity is not getting displayed on updating the quantity with negative, zero or blank in the 'Shopping Cart' page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Application URL
+2. Enter any Product say 'iMac' in the Search box field
+3. Click on 'Search' icon button
+4. Click on 'Add to Cart' button on the product displayed in the Search Results page
+5. Click on 'Shopping Cart' header option
+6. Enter -5 into the Quantity field
+7. Click on 'Update' icon option
+</t>
+  </si>
+  <si>
+    <t>Warning message informing the User to provide the positive quantity should be displayed</t>
+  </si>
+  <si>
+    <t>No warning message is getting displayed, instead 'Your shopping cart is empty!' is getting displayed</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-16</t>
+  </si>
+  <si>
+    <t>$8 is displayed instead of $5 in the displayed 'Estimate Shipping &amp; Taxes' dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open any Application URL
+2. Navigate to Shopping Cart page after adding a Product to Cart
+3. Click on 'Estimate Shipping &amp; Taxes' dialog
+4. Enter Country say 'United States' into the 'Country' text field
+5. Enter Region/State say 'California' into the 'Region/State' text field
+6. Click on 'Get Quotes' button
+</t>
+  </si>
+  <si>
+    <t>$5 should be displayed in the 'Estimate Shipping &amp; Taxes' dialog</t>
+  </si>
+  <si>
+    <t>For the first time after opening the browser and following the steps to reproduce, $8 is getting displayed in the 'Estimate Shipping &amp; Taxes' dialog</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-17</t>
+  </si>
+  <si>
+    <t>User can provide future date for the 'Order Date' field while returning the order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login to the Account having few orders placed
+2. Click on 'Order History' Right column option
+3. Click on 'View' icon option of any order displayed in the table of 'Order History' page
+4. Enter any future date into the 'Order Date' field in the displayed 'Product Returns' page
+5. Provide/Select all the mandatory fields and click on 'Submit' button 
+</t>
+  </si>
+  <si>
+    <t>Warning message informing the User to provide a valid date should be displayed</t>
+  </si>
+  <si>
+    <t>Future Date provided in the 'Order Date' field is accepted and return is placed</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-18</t>
+  </si>
+  <si>
+    <t>Page text is not displayed in the 'About Us', 'Delivery Information', 'Privacy Policy'  and 'Terms &amp; Conditions' page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Application URL
+2. Click on 'About Us' footer option or other footer options like 'Delivery Information', 'Privacy Policy’ and 'Terms &amp; Conditions' page
+</t>
+  </si>
+  <si>
+    <t>Proper page text should be displayed in the pages</t>
+  </si>
+  <si>
+    <t>No page text is getting displayed in the page as shown in the attached screenshot</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-19</t>
+  </si>
+  <si>
+    <t>Normal User who has not registered for the Affiliate account is able to login from 'Affiliate Login' section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Application URL
+2. Click on 'Affiliate' footer link
+3. Login from the 'Affiliate Program' page by providing credentials of the normal User who has not registered for an Affiliate account from the 'Affiliate Login' section
+4. Click on 'Login' button
+</t>
+  </si>
+  <si>
+    <t>User doesn't have any affiliate account warning message should be displayed</t>
+  </si>
+  <si>
+    <t>Normal User not registered for affiliate account is able to login as shown in the attached screenshot</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-20</t>
+  </si>
+  <si>
+    <t>Options are not displayed in the 'Select' dropdown list of 'Canon EOS 5D' product display page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Application URL
+2. Enter 'Canon' text into Search text field
+3. Click on 'Search' icon button
+4. Click on the Product displayed in the Search results
+5. Select any option from the 'Select' dropdown field displayed in the Product Display Page
+</t>
+  </si>
+  <si>
+    <t>Options should be displayed in the 'Select' dropdown field</t>
+  </si>
+  <si>
+    <t>Not a single option is displayed in the 'Select' dropdown field as shown in the attached screenshot</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-21</t>
+  </si>
+  <si>
+    <t>Logo of the Application is missing, instead 'Your Text' is getting displayed</t>
+  </si>
+  <si>
+    <t>1. Open Application URL</t>
+  </si>
+  <si>
+    <t>Logo should be displayed on the top left of the page</t>
+  </si>
+  <si>
+    <t>Logo is not getting displayed, instead 'Your Text' is displayed on the page as shown in the attached screenshot</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-22</t>
+  </si>
+  <si>
+    <t>Clicking on the first Hero image is taking us to a wrong Product Display Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Application URL
+2. Click on the first Hero Image displayed in the Home page
+</t>
+  </si>
+  <si>
+    <t>User should be taken to correct Product Display Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is taken to a Product Display page of a Tab </t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-23</t>
+  </si>
+  <si>
+    <t>A blank 'Contact Us' page is displayed on submitting the form in 'Contact Us' page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Application URL
+2. Click on 'Contact Us' footer option
+3. Enter the details into 'Your Name', 'E-Mail Address' and 'Enquiry' fields in the 'Contact Us' page
+4. Click on 'Submit' button
+</t>
+  </si>
+  <si>
+    <t>Success Message with text - 'Your Enquiry has been Submitted!' should be displayed in the 'Contact Us' page</t>
+  </si>
+  <si>
+    <t>A blank 'Contact Us' page is getting displayed as shown in the attached screenshot</t>
+  </si>
+  <si>
+    <t>User is not getting  logged out of the application after browser back click user logged in the application</t>
+  </si>
+  <si>
+    <t>1.Login to the application with proper credentials in the any browser
+2.Logout in the Chrome or Brave and Firfox Browser
+3. Check in the browser back button</t>
+  </si>
+  <si>
+    <t>User should not get into the login page</t>
+  </si>
+  <si>
+    <t>User is getting login in the application</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Open-Cart</t>
+  </si>
+  <si>
+    <t>Fahad Bin Wadud</t>
+  </si>
+  <si>
+    <t>Developer Name (TL)</t>
+  </si>
+  <si>
+    <t>Bug/Defect Reported By</t>
+  </si>
+  <si>
+    <t>Test Environment</t>
+  </si>
+  <si>
+    <t>Brwoser Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrome , Firefox and Brave Browser </t>
+  </si>
+  <si>
+    <t>Windows 10 Enterprise, 64 bits,Mobile Phone</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,23 +597,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="14"/>
-      <color theme="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +614,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,44 +666,94 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFFF9900"/>
+      <color rgb="FF66FF33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -596,200 +1028,643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G8" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G9" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G10" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="16"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" location="'OpenCart Bugs'!B2" display="OPENCART-BUG-1"/>
-    <hyperlink ref="A3" location="'OpenCart Bugs'!B3" display="OPENCART-BUG-2"/>
-    <hyperlink ref="A4" location="'OpenCart Bugs'!B4" display="OPENCART-BUG-3"/>
-    <hyperlink ref="A5" location="'OpenCart Bugs'!B5" display="OPENCART-BUG-4"/>
-    <hyperlink ref="A6" location="'OpenCart Bugs'!B6" display="'OPENCART-BUG-6"/>
-    <hyperlink ref="A7" location="'OpenCart Bugs'!B6" display="OPENCART-BUG-6"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
